--- a/program_web/node_frontend.xlsx
+++ b/program_web/node_frontend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\program_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34450A95-BD1D-4AAA-99E6-4005F072AC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4F4E81-2ABA-480D-A8F1-45A7D9FC0297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{54DDD98C-9698-45B3-BEB7-1BCDAA35702A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="350">
   <si>
     <t>javaScrip string methods</t>
   </si>
@@ -939,13 +939,160 @@
   </si>
   <si>
     <t>Promise(Concept)</t>
+  </si>
+  <si>
+    <t>resolve</t>
+  </si>
+  <si>
+    <t>thành công</t>
+  </si>
+  <si>
+    <t>reject</t>
+  </si>
+  <si>
+    <t>thất bại</t>
+  </si>
+  <si>
+    <t>.then</t>
+  </si>
+  <si>
+    <t>.catch</t>
+  </si>
+  <si>
+    <t>khi resolve được gọi thì callback của nó được gọi</t>
+  </si>
+  <si>
+    <t>khi reject được gọi thì callback của nó được gọi</t>
+  </si>
+  <si>
+    <t>.finally</t>
+  </si>
+  <si>
+    <t>đều được gọi với cả 2</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>promise là 1 khái niệm sinh ra để xử lý những quy tắc bất đồng bộ, trước khi có promise thì chúng</t>
+  </si>
+  <si>
+    <t>ta sẽ thường sử dụng callback và callback sẽ xảy ra vấn đề là callback hell nó sẽ bị sau vào code</t>
+  </si>
+  <si>
+    <t>khó nhìn, khó hiểu, bị rối vì thế promise được sinh ra ở phiên bản javascript ES6 và chúng ta có</t>
+  </si>
+  <si>
+    <t>thể sử dụng nó để khắc phực tình trạng callback hell để giúp chúng ta viết code rõ ràng hơn.</t>
+  </si>
+  <si>
+    <t>để tạo ra promise chúng ta sẽ sử dụng từ khoá new với promise, trong contructor của nó chúng</t>
+  </si>
+  <si>
+    <t>ta sẽ truyền vào 1 executor function, trong executor function chúng ta sẽ nhận được 2 tham số</t>
+  </si>
+  <si>
+    <t>dạng hàm 1 là resolve, 2 reject. Resolve sẽ gọi khi thao tác xử lý của chúng ta thành công, rejcet</t>
+  </si>
+  <si>
+    <t>sẽ gọi khi thao tác xử lý của chúng ta thất bại. Và khi sử dụng đối tượng promise được tạo ra</t>
+  </si>
+  <si>
+    <t>chúng ta sẽ xử dụng thông qua phương thức .then và .catch. Then và catch đều nhận các callback</t>
+  </si>
+  <si>
+    <t>function và lọt vào then khi promise được resolve và lọt vào catch khi promise được reject</t>
+  </si>
+  <si>
+    <t>concept creat</t>
+  </si>
+  <si>
+    <t>Promise(Chain)</t>
+  </si>
+  <si>
+    <t>promise.reject</t>
+  </si>
+  <si>
+    <t>promise.all</t>
+  </si>
+  <si>
+    <t>promise.resolve</t>
+  </si>
+  <si>
+    <t>tạo nhanh promise trả về thành công</t>
+  </si>
+  <si>
+    <t>tạo nhanh promise trả về thất bại</t>
+  </si>
+  <si>
+    <t>thư viện</t>
+  </si>
+  <si>
+    <t>output luôn luôn là một promise</t>
+  </si>
+  <si>
+    <t>Promise(Example)</t>
+  </si>
+  <si>
+    <t>1. Lấy comments</t>
+  </si>
+  <si>
+    <t>từ user_id lấy ra user tương ứng</t>
+  </si>
+  <si>
+    <t>2. Từ comments lấy ra user_id,</t>
+  </si>
+  <si>
+    <t>Promise(Fetch)</t>
+  </si>
+  <si>
+    <t>1. Front-end</t>
+  </si>
+  <si>
+    <t>xây dựng giao diện người dùng</t>
+  </si>
+  <si>
+    <t>2. Back-end</t>
+  </si>
+  <si>
+    <t>cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>Application programing interface</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Cổng giao tiếp giữa các phần mềm</t>
+  </si>
+  <si>
+    <t>API (URL)</t>
+  </si>
+  <si>
+    <t>Backend &gt; API &gt; Fetch -&gt; JSION/XML</t>
+  </si>
+  <si>
+    <t>&gt; JSION.parse &gt; Javascript types</t>
+  </si>
+  <si>
+    <t>&gt; Render ra giao diện với HTML</t>
+  </si>
+  <si>
+    <t>json viewer extension chrome</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>json placeholder api</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -967,8 +1114,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -987,8 +1140,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1024,20 +1183,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1060,8 +1210,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1377,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF9AC94-564D-476B-A6F2-7E513429403D}">
-  <dimension ref="B1:G167"/>
+  <dimension ref="B1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167:C167"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C196" sqref="C196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2700,15 +2856,260 @@
         <v>298</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B167" s="8" t="s">
+    <row r="167" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B167" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C167" s="8"/>
+      <c r="C167" s="5"/>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B169" s="9"/>
+      <c r="C169" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B170" s="9"/>
+      <c r="C170" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B171" s="9"/>
+      <c r="C171" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B172" s="9"/>
+      <c r="C172" s="9"/>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B174" s="9"/>
+      <c r="C174" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B175" s="9"/>
+      <c r="C175" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B176" s="9"/>
+      <c r="C176" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177" s="9"/>
+      <c r="C177" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178" s="9"/>
+      <c r="C178" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179" s="9"/>
+      <c r="C179" s="9"/>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B181" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B182" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B184" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B185" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C185" s="5"/>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B186" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B187" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B188" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C188" s="8"/>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B189" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B190" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C190" s="5"/>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B191" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C191" s="1"/>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B192" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C192" s="1"/>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B193" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C193" s="1"/>
+    </row>
+    <row r="194" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B194" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C194" s="5"/>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B195" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B196" s="8"/>
+      <c r="C196" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B197" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B198" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B199" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B200" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B201" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C201" s="1"/>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B202" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B203" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C203" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="24">
     <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B194:C194"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B26:C26"/>

--- a/program_web/node_frontend.xlsx
+++ b/program_web/node_frontend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\program_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4F4E81-2ABA-480D-A8F1-45A7D9FC0297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6095105-B82C-4571-8D0F-D83E3B9689E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{54DDD98C-9698-45B3-BEB7-1BCDAA35702A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="400">
   <si>
     <t>javaScrip string methods</t>
   </si>
@@ -1086,6 +1086,156 @@
   </si>
   <si>
     <t>json placeholder api</t>
+  </si>
+  <si>
+    <t>json server</t>
+  </si>
+  <si>
+    <t>npm</t>
+  </si>
+  <si>
+    <t>node package manager</t>
+  </si>
+  <si>
+    <t>npmjs.com</t>
+  </si>
+  <si>
+    <t>quản lý thư viện nodejs</t>
+  </si>
+  <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t>npm -v</t>
+  </si>
+  <si>
+    <t>kiểm tra npm</t>
+  </si>
+  <si>
+    <t>npm init</t>
+  </si>
+  <si>
+    <t>khởi tạo project</t>
+  </si>
+  <si>
+    <t>npm install json-server</t>
+  </si>
+  <si>
+    <t>cài vào folder</t>
+  </si>
+  <si>
+    <t>npm install -g json-server</t>
+  </si>
+  <si>
+    <t>cài vào máy</t>
+  </si>
+  <si>
+    <t>Nodejs</t>
+  </si>
+  <si>
+    <t>download</t>
+  </si>
+  <si>
+    <t>nodejs.org</t>
+  </si>
+  <si>
+    <t>node -v</t>
+  </si>
+  <si>
+    <t>npx -v</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>API Server (Fake) / Mock API</t>
+  </si>
+  <si>
+    <t>Fetch(JSON server)</t>
+  </si>
+  <si>
+    <t>Fetch(CRUD)</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>posman</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>rapidAPI</t>
+  </si>
+  <si>
+    <t>test vs</t>
+  </si>
+  <si>
+    <t>tạo mới &gt; POST</t>
+  </si>
+  <si>
+    <t>lấy dữ liệu &gt; GET</t>
+  </si>
+  <si>
+    <t>chỉnh sửa &gt; PUT / PATCH</t>
+  </si>
+  <si>
+    <t>xoá &gt; DELETE</t>
+  </si>
+  <si>
+    <t>REST API</t>
+  </si>
+  <si>
+    <t>tuấn thủ theo restApi</t>
+  </si>
+  <si>
+    <t>ECMAScript6</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>khi code thuần</t>
+  </si>
+  <si>
+    <t>const, let</t>
+  </si>
+  <si>
+    <t>khi định nghĩa biến và không gán lại</t>
+  </si>
+  <si>
+    <t>khi sử dụng thư viện Babel</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>khi cần gán lại cho biến</t>
+  </si>
+  <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>tabnine</t>
+  </si>
+  <si>
+    <t>extension vs code</t>
+  </si>
+  <si>
+    <t>Spread</t>
+  </si>
+  <si>
+    <t>dãi</t>
+  </si>
+  <si>
+    <t>… param</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1201,22 +1351,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1533,10 +1686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF9AC94-564D-476B-A6F2-7E513429403D}">
-  <dimension ref="B1:G203"/>
+  <dimension ref="B1:G235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C196" sqref="C196"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C240" sqref="C240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,10 +1705,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="9"/>
       <c r="E1" s="2" t="s">
         <v>258</v>
       </c>
@@ -1701,10 +1854,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -1787,10 +1940,10 @@
       </c>
     </row>
     <row r="26" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
@@ -1889,10 +2042,10 @@
       </c>
     </row>
     <row r="39" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="5"/>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
@@ -1943,10 +2096,10 @@
       </c>
     </row>
     <row r="46" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="5"/>
+      <c r="C46" s="9"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
@@ -1981,10 +2134,10 @@
       </c>
     </row>
     <row r="51" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="5"/>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
@@ -2051,10 +2204,10 @@
       </c>
     </row>
     <row r="60" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C60" s="5"/>
+      <c r="C60" s="9"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
@@ -2073,16 +2226,16 @@
       </c>
     </row>
     <row r="63" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C63" s="5"/>
+      <c r="C63" s="9"/>
     </row>
     <row r="64" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C64" s="5"/>
+      <c r="C64" s="9"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
@@ -2141,10 +2294,10 @@
       </c>
     </row>
     <row r="72" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="5"/>
+      <c r="C72" s="9"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
@@ -2169,10 +2322,10 @@
       </c>
     </row>
     <row r="76" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C76" s="5"/>
+      <c r="C76" s="9"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
@@ -2207,10 +2360,10 @@
       </c>
     </row>
     <row r="81" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C81" s="5"/>
+      <c r="C81" s="9"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
@@ -2439,10 +2592,10 @@
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C111" s="7"/>
+      <c r="C111" s="10"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
@@ -2453,10 +2606,10 @@
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C113" s="7"/>
+      <c r="C113" s="10"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
@@ -2513,10 +2666,10 @@
       </c>
     </row>
     <row r="121" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C121" s="5"/>
+      <c r="C121" s="9"/>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
@@ -2687,10 +2840,10 @@
       </c>
     </row>
     <row r="143" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B143" s="5" t="s">
+      <c r="B143" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C143" s="5"/>
+      <c r="C143" s="9"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
@@ -2725,10 +2878,10 @@
       </c>
     </row>
     <row r="148" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="C148" s="5"/>
+      <c r="C148" s="9"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
@@ -2747,10 +2900,10 @@
       </c>
     </row>
     <row r="151" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C151" s="6"/>
+      <c r="C151" s="11"/>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
@@ -2807,10 +2960,10 @@
       </c>
     </row>
     <row r="160" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C160" s="5"/>
+      <c r="C160" s="9"/>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
@@ -2835,10 +2988,10 @@
       </c>
     </row>
     <row r="164" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B164" s="5" t="s">
+      <c r="B164" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C164" s="5"/>
+      <c r="C164" s="9"/>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
@@ -2857,82 +3010,82 @@
       </c>
     </row>
     <row r="167" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="C167" s="5"/>
+      <c r="C167" s="9"/>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C168" s="9" t="s">
+      <c r="C168" s="5" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B169" s="9"/>
-      <c r="C169" s="9" t="s">
+      <c r="B169" s="5"/>
+      <c r="C169" s="5" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B170" s="9"/>
-      <c r="C170" s="9" t="s">
+      <c r="B170" s="5"/>
+      <c r="C170" s="5" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B171" s="9"/>
-      <c r="C171" s="9" t="s">
+      <c r="B171" s="5"/>
+      <c r="C171" s="5" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B172" s="9"/>
-      <c r="C172" s="9"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B173" s="10" t="s">
+      <c r="B173" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C173" s="9" t="s">
+      <c r="C173" s="5" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B174" s="9"/>
-      <c r="C174" s="9" t="s">
+      <c r="B174" s="5"/>
+      <c r="C174" s="5" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B175" s="9"/>
-      <c r="C175" s="9" t="s">
+      <c r="B175" s="5"/>
+      <c r="C175" s="5" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B176" s="9"/>
-      <c r="C176" s="9" t="s">
+      <c r="B176" s="5"/>
+      <c r="C176" s="5" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B177" s="9"/>
-      <c r="C177" s="9" t="s">
+      <c r="B177" s="5"/>
+      <c r="C177" s="5" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B178" s="9"/>
-      <c r="C178" s="9" t="s">
+      <c r="B178" s="5"/>
+      <c r="C178" s="5" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B179" s="9"/>
-      <c r="C179" s="9"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
@@ -2975,32 +3128,32 @@
       </c>
     </row>
     <row r="185" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B185" s="5" t="s">
+      <c r="B185" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="C185" s="5"/>
+      <c r="C185" s="9"/>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B186" s="8" t="s">
+      <c r="B186" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C186" s="8" t="s">
+      <c r="C186" s="1" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B187" s="8" t="s">
+      <c r="B187" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C187" s="8" t="s">
+      <c r="C187" s="1" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B188" s="8" t="s">
+      <c r="B188" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C188" s="8"/>
+      <c r="C188" s="1"/>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
@@ -3011,10 +3164,10 @@
       </c>
     </row>
     <row r="190" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B190" s="5" t="s">
+      <c r="B190" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C190" s="5"/>
+      <c r="C190" s="9"/>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
@@ -3035,22 +3188,22 @@
       <c r="C193" s="1"/>
     </row>
     <row r="194" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B194" s="5" t="s">
+      <c r="B194" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="C194" s="5"/>
+      <c r="C194" s="9"/>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C195" s="8" t="s">
+      <c r="C195" s="1" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B196" s="8"/>
-      <c r="C196" s="8" t="s">
+      <c r="B196" s="1"/>
+      <c r="C196" s="1" t="s">
         <v>349</v>
       </c>
     </row>
@@ -3104,32 +3257,277 @@
       </c>
       <c r="C203" s="1"/>
     </row>
+    <row r="204" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B204" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C204" s="9"/>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B205" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B206" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B207" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B208" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B209" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C209" s="8"/>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B210" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B211" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B212" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B213" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B214" s="8"/>
+      <c r="C214" s="8"/>
+    </row>
+    <row r="215" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B215" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C215" s="9"/>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B216" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B217" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B218" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B219" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B220" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C220" s="9"/>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B221" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B222" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B223" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B224" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B225" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B226" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B227" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B228" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C228" s="9"/>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B229" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B230" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B231" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B232" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B233" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B234" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C234" s="9"/>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B235" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B194:C194"/>
+  <mergeCells count="29">
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B234:C234"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B167:C167"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="B160:C160"/>
     <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="B228:C228"/>
     <mergeCell ref="B111:C111"/>
     <mergeCell ref="B113:C113"/>
     <mergeCell ref="B121:C121"/>
     <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B194:C194"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/program_web/node_frontend.xlsx
+++ b/program_web/node_frontend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\program_web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\program_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6095105-B82C-4571-8D0F-D83E3B9689E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D90411-4C0A-4ACC-AFE1-85167FFDCEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{54DDD98C-9698-45B3-BEB7-1BCDAA35702A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{54DDD98C-9698-45B3-BEB7-1BCDAA35702A}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -1366,15 +1366,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1390,7 +1390,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1688,23 +1688,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF9AC94-564D-476B-A6F2-7E513429403D}">
   <dimension ref="B1:G235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C240" sqref="C240"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="2"/>
+    <col min="5" max="5" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="18" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1853,13 +1853,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="18" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
@@ -1939,13 +1939,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>42</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>52</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>56</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>58</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>60</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>62</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>64</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
@@ -2041,13 +2041,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="s">
         <v>67</v>
       </c>
       <c r="C39" s="9"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>68</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>70</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>72</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>74</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>76</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
         <v>78</v>
       </c>
@@ -2095,13 +2095,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B46" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C46" s="9"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
         <v>18</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
         <v>18</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
         <v>82</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
         <v>84</v>
       </c>
@@ -2133,13 +2133,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B51" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="9"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
         <v>87</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>89</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>91</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>93</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>95</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
         <v>97</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
         <v>99</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
         <v>101</v>
       </c>
@@ -2203,13 +2203,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B60" s="9" t="s">
         <v>103</v>
       </c>
       <c r="C60" s="9"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
         <v>104</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
         <v>106</v>
       </c>
@@ -2225,19 +2225,19 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B63" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C63" s="9"/>
     </row>
-    <row r="64" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B64" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C64" s="9"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
         <v>110</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
         <v>112</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
         <v>114</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
         <v>116</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
         <v>118</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
         <v>120</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
         <v>122</v>
       </c>
@@ -2293,19 +2293,19 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B72" s="9" t="s">
         <v>124</v>
       </c>
       <c r="C72" s="9"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
         <v>126</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="s">
         <v>128</v>
       </c>
@@ -2321,13 +2321,13 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B76" s="9" t="s">
         <v>130</v>
       </c>
       <c r="C76" s="9"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
         <v>131</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
         <v>133</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>135</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" s="1" t="s">
         <v>137</v>
       </c>
@@ -2359,13 +2359,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B81" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C81" s="9"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
         <v>140</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
         <v>142</v>
       </c>
@@ -2381,25 +2381,25 @@
         <v>143</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" s="1" t="s">
         <v>144</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
         <v>146</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" s="1" t="s">
         <v>148</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="1" t="s">
         <v>150</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
         <v>152</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
         <v>154</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
         <v>156</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
         <v>158</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" s="1" t="s">
         <v>160</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" s="1" t="s">
         <v>162</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
         <v>164</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
         <v>166</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
         <v>168</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" s="1" t="s">
         <v>170</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="s">
         <v>172</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" s="1" t="s">
         <v>174</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" s="1" t="s">
         <v>176</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" s="1" t="s">
         <v>178</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" s="1" t="s">
         <v>180</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" s="1" t="s">
         <v>182</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B107" s="1" t="s">
         <v>184</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B108" s="1" t="s">
         <v>186</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B109" s="1" t="s">
         <v>188</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B110" s="1" t="s">
         <v>190</v>
       </c>
@@ -2591,13 +2591,13 @@
         <v>191</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" s="10" t="s">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B111" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C111" s="10"/>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="11"/>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B112" s="1" t="s">
         <v>249</v>
       </c>
@@ -2605,19 +2605,19 @@
         <v>248</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="10" t="s">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B113" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C113" s="10"/>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="11"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B114" s="1" t="s">
         <v>194</v>
       </c>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B115" s="1" t="s">
         <v>1</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B116" s="1" t="s">
         <v>196</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B117" s="1" t="s">
         <v>198</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B118" s="1" t="s">
         <v>200</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B119" s="1" t="s">
         <v>202</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B120" s="1" t="s">
         <v>204</v>
       </c>
@@ -2665,13 +2665,13 @@
         <v>205</v>
       </c>
     </row>
-    <row r="121" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B121" s="9" t="s">
         <v>206</v>
       </c>
       <c r="C121" s="9"/>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B122" s="1" t="s">
         <v>207</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B123" s="1" t="s">
         <v>209</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B124" s="1" t="s">
         <v>211</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B125" s="1" t="s">
         <v>213</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B126" s="1" t="s">
         <v>215</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B127" s="1" t="s">
         <v>217</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B128" s="1" t="s">
         <v>219</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B129" s="1" t="s">
         <v>221</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B130" s="1" t="s">
         <v>223</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B131" s="1" t="s">
         <v>225</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B132" s="1" t="s">
         <v>227</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B133" s="1" t="s">
         <v>229</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B134" s="1" t="s">
         <v>230</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B135" s="1" t="s">
         <v>232</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B136" s="1" t="s">
         <v>234</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B137" s="1" t="s">
         <v>236</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B138" s="1" t="s">
         <v>238</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B139" s="1" t="s">
         <v>240</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B140" s="1" t="s">
         <v>242</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B141" s="1" t="s">
         <v>244</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B142" s="1" t="s">
         <v>246</v>
       </c>
@@ -2839,13 +2839,13 @@
         <v>247</v>
       </c>
     </row>
-    <row r="143" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B143" s="9" t="s">
         <v>250</v>
       </c>
       <c r="C143" s="9"/>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B144" s="1" t="s">
         <v>251</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B145" s="1" t="s">
         <v>274</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B146" s="1" t="s">
         <v>253</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B147" s="1" t="s">
         <v>255</v>
       </c>
@@ -2877,13 +2877,13 @@
         <v>256</v>
       </c>
     </row>
-    <row r="148" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B148" s="9" t="s">
         <v>270</v>
       </c>
       <c r="C148" s="9"/>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B149" s="1" t="s">
         <v>271</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B150" s="1" t="s">
         <v>275</v>
       </c>
@@ -2899,25 +2899,25 @@
         <v>276</v>
       </c>
     </row>
-    <row r="151" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B151" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C151" s="11"/>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="10"/>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B152" s="1" t="s">
         <v>278</v>
       </c>
       <c r="C152" s="1"/>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B153" s="1" t="s">
         <v>279</v>
       </c>
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B154" s="3" t="s">
         <v>280</v>
       </c>
@@ -2925,25 +2925,25 @@
         <v>281</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B155" s="1" t="s">
         <v>282</v>
       </c>
       <c r="C155" s="1"/>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B156" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C156" s="1"/>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B157" s="4" t="s">
         <v>283</v>
       </c>
       <c r="C157" s="4"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B158" s="1" t="s">
         <v>285</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B159" s="1" t="s">
         <v>287</v>
       </c>
@@ -2959,19 +2959,19 @@
         <v>288</v>
       </c>
     </row>
-    <row r="160" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B160" s="9" t="s">
         <v>289</v>
       </c>
       <c r="C160" s="9"/>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B161" s="1" t="s">
         <v>290</v>
       </c>
       <c r="C161" s="1"/>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162" s="1" t="s">
         <v>291</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B163" s="1" t="s">
         <v>293</v>
       </c>
@@ -2987,13 +2987,13 @@
         <v>294</v>
       </c>
     </row>
-    <row r="164" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B164" s="9" t="s">
         <v>299</v>
       </c>
       <c r="C164" s="9"/>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B165" s="1" t="s">
         <v>295</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B166" s="1" t="s">
         <v>297</v>
       </c>
@@ -3009,13 +3009,13 @@
         <v>298</v>
       </c>
     </row>
-    <row r="167" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B167" s="9" t="s">
         <v>300</v>
       </c>
       <c r="C167" s="9"/>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B168" s="5" t="s">
         <v>311</v>
       </c>
@@ -3023,29 +3023,29 @@
         <v>312</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B169" s="5"/>
       <c r="C169" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B170" s="5"/>
       <c r="C170" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B171" s="5"/>
       <c r="C171" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B173" s="6" t="s">
         <v>322</v>
       </c>
@@ -3053,41 +3053,41 @@
         <v>316</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B174" s="5"/>
       <c r="C174" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B175" s="5"/>
       <c r="C175" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B176" s="5"/>
       <c r="C176" s="5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B177" s="5"/>
       <c r="C177" s="5" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B178" s="5"/>
       <c r="C178" s="5" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B180" s="1" t="s">
         <v>301</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B181" s="1" t="s">
         <v>303</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B182" s="1" t="s">
         <v>305</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B183" s="1" t="s">
         <v>306</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B184" s="1" t="s">
         <v>309</v>
       </c>
@@ -3127,13 +3127,13 @@
         <v>310</v>
       </c>
     </row>
-    <row r="185" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B185" s="9" t="s">
         <v>323</v>
       </c>
       <c r="C185" s="9"/>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B186" s="1" t="s">
         <v>326</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B187" s="1" t="s">
         <v>324</v>
       </c>
@@ -3149,13 +3149,13 @@
         <v>328</v>
       </c>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B188" s="1" t="s">
         <v>325</v>
       </c>
       <c r="C188" s="1"/>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B189" s="1" t="s">
         <v>329</v>
       </c>
@@ -3163,37 +3163,37 @@
         <v>330</v>
       </c>
     </row>
-    <row r="190" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B190" s="9" t="s">
         <v>331</v>
       </c>
       <c r="C190" s="9"/>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B191" s="1" t="s">
         <v>332</v>
       </c>
       <c r="C191" s="1"/>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B192" s="1" t="s">
         <v>334</v>
       </c>
       <c r="C192" s="1"/>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B193" s="1" t="s">
         <v>333</v>
       </c>
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B194" s="9" t="s">
         <v>335</v>
       </c>
       <c r="C194" s="9"/>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B195" s="1" t="s">
         <v>348</v>
       </c>
@@ -3201,13 +3201,13 @@
         <v>347</v>
       </c>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B196" s="1"/>
       <c r="C196" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B197" s="1" t="s">
         <v>336</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B198" s="1" t="s">
         <v>338</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B199" s="1" t="s">
         <v>343</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B200" s="1" t="s">
         <v>341</v>
       </c>
@@ -3239,31 +3239,31 @@
         <v>342</v>
       </c>
     </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B201" s="1" t="s">
         <v>344</v>
       </c>
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B202" s="1" t="s">
         <v>345</v>
       </c>
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B203" s="1" t="s">
         <v>346</v>
       </c>
       <c r="C203" s="1"/>
     </row>
-    <row r="204" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B204" s="9" t="s">
         <v>371</v>
       </c>
       <c r="C204" s="9"/>
     </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B205" s="7" t="s">
         <v>350</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B206" s="8" t="s">
         <v>258</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B207" s="8" t="s">
         <v>351</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B208" s="8" t="s">
         <v>353</v>
       </c>
@@ -3295,13 +3295,13 @@
         <v>354</v>
       </c>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B209" s="8" t="s">
         <v>355</v>
       </c>
       <c r="C209" s="8"/>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B210" s="8" t="s">
         <v>356</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B211" s="8" t="s">
         <v>358</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B212" s="8" t="s">
         <v>360</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B213" s="8" t="s">
         <v>362</v>
       </c>
@@ -3333,17 +3333,17 @@
         <v>363</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
     </row>
-    <row r="215" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B215" s="9" t="s">
         <v>364</v>
       </c>
       <c r="C215" s="9"/>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B216" s="8" t="s">
         <v>365</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B217" s="8" t="s">
         <v>367</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B218" s="8" t="s">
         <v>356</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B219" s="8" t="s">
         <v>368</v>
       </c>
@@ -3375,13 +3375,13 @@
         <v>369</v>
       </c>
     </row>
-    <row r="220" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B220" s="9" t="s">
         <v>372</v>
       </c>
       <c r="C220" s="9"/>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B221" s="1" t="s">
         <v>373</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B222" s="1" t="s">
         <v>374</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B223" s="1" t="s">
         <v>375</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B224" s="1" t="s">
         <v>82</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B225" s="1" t="s">
         <v>376</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B226" s="1" t="s">
         <v>378</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B227" s="1" t="s">
         <v>384</v>
       </c>
@@ -3437,13 +3437,13 @@
         <v>385</v>
       </c>
     </row>
-    <row r="228" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B228" s="9" t="s">
         <v>386</v>
       </c>
       <c r="C228" s="9"/>
     </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B229" s="1" t="s">
         <v>387</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B230" s="1" t="s">
         <v>389</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B231" s="1" t="s">
         <v>392</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B232" s="1" t="s">
         <v>394</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B233" s="1" t="s">
         <v>395</v>
       </c>
@@ -3483,13 +3483,13 @@
         <v>396</v>
       </c>
     </row>
-    <row r="234" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B234" s="9" t="s">
         <v>397</v>
       </c>
       <c r="C234" s="9"/>
     </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B235" s="1" t="s">
         <v>399</v>
       </c>
@@ -3499,6 +3499,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B220:C220"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B148:C148"/>
     <mergeCell ref="B151:C151"/>
@@ -3515,19 +3528,6 @@
     <mergeCell ref="B167:C167"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B194:C194"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/program_web/node_frontend.xlsx
+++ b/program_web/node_frontend.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\program_web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\program_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D90411-4C0A-4ACC-AFE1-85167FFDCEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5830A678-DB59-48B2-BCBF-27900DF004F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{54DDD98C-9698-45B3-BEB7-1BCDAA35702A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{54DDD98C-9698-45B3-BEB7-1BCDAA35702A}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="447">
   <si>
     <t>javaScrip string methods</t>
   </si>
@@ -1236,13 +1236,154 @@
   </si>
   <si>
     <t>… param</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Viewport Resizer – Responsive Testing Tool</t>
+  </si>
+  <si>
+    <t>meta view parameters</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>loại trừ</t>
+  </si>
+  <si>
+    <t>only</t>
+  </si>
+  <si>
+    <t>chỉ với …</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>và</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>hoặc</t>
+  </si>
+  <si>
+    <t>.@media not|only mediatype and(mediafrature and|or|not mediafeature){CSS-Code}</t>
+  </si>
+  <si>
+    <t>Mediatypes</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>chế độ in</t>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
+  <si>
+    <t>chế độ màn hình</t>
+  </si>
+  <si>
+    <t>speech</t>
+  </si>
+  <si>
+    <t>màn hình nói được (người khuyết tật)</t>
+  </si>
+  <si>
+    <t>all - default</t>
+  </si>
+  <si>
+    <t>tất cả</t>
+  </si>
+  <si>
+    <t>Media Features</t>
+  </si>
+  <si>
+    <t>min-width</t>
+  </si>
+  <si>
+    <t>max-width</t>
+  </si>
+  <si>
+    <t>Polyfil</t>
+  </si>
+  <si>
+    <t>caniuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">độ tương thích </t>
+  </si>
+  <si>
+    <t>Respond js polyfill cnd</t>
+  </si>
+  <si>
+    <t>link tương thích cho các ide cũ</t>
+  </si>
+  <si>
+    <t>html condition comment</t>
+  </si>
+  <si>
+    <t>điều kiện cho IE cũ</t>
+  </si>
+  <si>
+    <t>Breakpoints</t>
+  </si>
+  <si>
+    <t>Khái niệm</t>
+  </si>
+  <si>
+    <t>là những điểm/vị trí mà bố cục website sẽ thay đổi để tương thích</t>
+  </si>
+  <si>
+    <t>media query common breakpoints</t>
+  </si>
+  <si>
+    <t>keyword kích thước</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>width &lt; 740px</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>&gt;= 740px and width &lt; 1024px</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>width &gt;= 1024px</t>
+  </si>
+  <si>
+    <t>Media queries: Px, rem hay em?</t>
+  </si>
+  <si>
+    <t>px to em converter</t>
+  </si>
+  <si>
+    <t>flexbox playground</t>
+  </si>
+  <si>
+    <t>https://flexboxfroggy.com/#vi</t>
+  </si>
+  <si>
+    <t>game flex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1266,6 +1407,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1297,7 +1453,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1333,11 +1489,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1366,15 +1549,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1390,7 +1601,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1686,25 +1897,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF9AC94-564D-476B-A6F2-7E513429403D}">
-  <dimension ref="B1:G235"/>
+  <dimension ref="B1:G263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B205" sqref="B205"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="2" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="2"/>
-    <col min="5" max="5" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
@@ -1719,7 +1930,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1733,7 +1944,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1747,7 +1958,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1761,7 +1972,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1775,7 +1986,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1789,31 +2000,46 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F8" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F9" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1821,7 +2047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1829,7 +2055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1837,7 +2063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1845,7 +2071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1853,13 +2079,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1867,7 +2093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1875,7 +2101,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1883,7 +2109,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
@@ -1891,7 +2117,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
@@ -1899,7 +2125,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,7 +2133,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
@@ -1915,7 +2141,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
@@ -1923,7 +2149,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
@@ -1931,7 +2157,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
@@ -1939,13 +2165,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
@@ -1953,7 +2179,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
@@ -1961,7 +2187,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1969,7 +2195,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>42</v>
       </c>
@@ -1977,7 +2203,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>52</v>
       </c>
@@ -1985,7 +2211,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
@@ -1993,7 +2219,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>56</v>
       </c>
@@ -2001,7 +2227,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>58</v>
       </c>
@@ -2009,7 +2235,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>60</v>
       </c>
@@ -2017,7 +2243,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>62</v>
       </c>
@@ -2025,7 +2251,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>64</v>
       </c>
@@ -2033,7 +2259,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
@@ -2041,13 +2267,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>67</v>
       </c>
       <c r="C39" s="9"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>68</v>
       </c>
@@ -2055,7 +2281,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>70</v>
       </c>
@@ -2063,7 +2289,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>72</v>
       </c>
@@ -2071,7 +2297,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>74</v>
       </c>
@@ -2079,7 +2305,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>76</v>
       </c>
@@ -2087,7 +2313,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>78</v>
       </c>
@@ -2095,13 +2321,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C46" s="9"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>18</v>
       </c>
@@ -2109,7 +2335,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>18</v>
       </c>
@@ -2117,7 +2343,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>82</v>
       </c>
@@ -2125,7 +2351,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>84</v>
       </c>
@@ -2133,13 +2359,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="9"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>87</v>
       </c>
@@ -2147,7 +2373,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>89</v>
       </c>
@@ -2155,7 +2381,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>91</v>
       </c>
@@ -2163,7 +2389,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>93</v>
       </c>
@@ -2171,7 +2397,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>95</v>
       </c>
@@ -2179,7 +2405,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>97</v>
       </c>
@@ -2187,7 +2413,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>99</v>
       </c>
@@ -2195,7 +2421,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>101</v>
       </c>
@@ -2203,13 +2429,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B60" s="9" t="s">
         <v>103</v>
       </c>
       <c r="C60" s="9"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>104</v>
       </c>
@@ -2217,7 +2443,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>106</v>
       </c>
@@ -2225,19 +2451,19 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B63" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C63" s="9"/>
     </row>
-    <row r="64" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B64" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C64" s="9"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>110</v>
       </c>
@@ -2245,7 +2471,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>112</v>
       </c>
@@ -2253,7 +2479,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>114</v>
       </c>
@@ -2261,7 +2487,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>116</v>
       </c>
@@ -2269,7 +2495,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>118</v>
       </c>
@@ -2277,7 +2503,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>120</v>
       </c>
@@ -2285,7 +2511,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>122</v>
       </c>
@@ -2293,19 +2519,19 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B72" s="9" t="s">
         <v>124</v>
       </c>
       <c r="C72" s="9"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>126</v>
       </c>
@@ -2313,7 +2539,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>128</v>
       </c>
@@ -2321,13 +2547,13 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
         <v>130</v>
       </c>
       <c r="C76" s="9"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>131</v>
       </c>
@@ -2335,7 +2561,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>133</v>
       </c>
@@ -2343,7 +2569,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>135</v>
       </c>
@@ -2351,7 +2577,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>137</v>
       </c>
@@ -2359,13 +2585,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B81" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C81" s="9"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>140</v>
       </c>
@@ -2373,7 +2599,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>142</v>
       </c>
@@ -2381,25 +2607,25 @@
         <v>143</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>144</v>
       </c>
@@ -2407,7 +2633,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>146</v>
       </c>
@@ -2415,7 +2641,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>148</v>
       </c>
@@ -2423,7 +2649,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>150</v>
       </c>
@@ -2431,7 +2657,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>152</v>
       </c>
@@ -2439,7 +2665,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>154</v>
       </c>
@@ -2447,7 +2673,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>156</v>
       </c>
@@ -2455,7 +2681,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>158</v>
       </c>
@@ -2463,7 +2689,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>160</v>
       </c>
@@ -2471,7 +2697,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>162</v>
       </c>
@@ -2479,7 +2705,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>164</v>
       </c>
@@ -2487,7 +2713,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>166</v>
       </c>
@@ -2495,7 +2721,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>168</v>
       </c>
@@ -2503,7 +2729,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>170</v>
       </c>
@@ -2511,7 +2737,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>172</v>
       </c>
@@ -2519,7 +2745,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>174</v>
       </c>
@@ -2527,7 +2753,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>176</v>
       </c>
@@ -2535,7 +2761,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>178</v>
       </c>
@@ -2543,7 +2769,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>180</v>
       </c>
@@ -2551,7 +2777,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>182</v>
       </c>
@@ -2559,7 +2785,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>184</v>
       </c>
@@ -2567,7 +2793,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>186</v>
       </c>
@@ -2575,7 +2801,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>188</v>
       </c>
@@ -2583,7 +2809,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>190</v>
       </c>
@@ -2591,13 +2817,13 @@
         <v>191</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B111" s="11" t="s">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C111" s="11"/>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C111" s="10"/>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>249</v>
       </c>
@@ -2605,19 +2831,19 @@
         <v>248</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B113" s="11" t="s">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C113" s="11"/>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C113" s="10"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>194</v>
       </c>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>1</v>
       </c>
@@ -2625,7 +2851,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>196</v>
       </c>
@@ -2633,7 +2859,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>198</v>
       </c>
@@ -2641,7 +2867,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>200</v>
       </c>
@@ -2649,7 +2875,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>202</v>
       </c>
@@ -2657,7 +2883,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>204</v>
       </c>
@@ -2665,13 +2891,13 @@
         <v>205</v>
       </c>
     </row>
-    <row r="121" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B121" s="9" t="s">
         <v>206</v>
       </c>
       <c r="C121" s="9"/>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>207</v>
       </c>
@@ -2679,7 +2905,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>209</v>
       </c>
@@ -2687,7 +2913,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>211</v>
       </c>
@@ -2695,7 +2921,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>213</v>
       </c>
@@ -2703,7 +2929,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>215</v>
       </c>
@@ -2711,7 +2937,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>217</v>
       </c>
@@ -2719,7 +2945,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>219</v>
       </c>
@@ -2727,7 +2953,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>221</v>
       </c>
@@ -2735,7 +2961,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>223</v>
       </c>
@@ -2743,7 +2969,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>225</v>
       </c>
@@ -2751,7 +2977,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>227</v>
       </c>
@@ -2759,7 +2985,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>229</v>
       </c>
@@ -2767,7 +2993,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>230</v>
       </c>
@@ -2775,7 +3001,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>232</v>
       </c>
@@ -2783,7 +3009,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>234</v>
       </c>
@@ -2791,7 +3017,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>236</v>
       </c>
@@ -2799,7 +3025,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>238</v>
       </c>
@@ -2807,7 +3033,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>240</v>
       </c>
@@ -2815,7 +3041,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>242</v>
       </c>
@@ -2823,7 +3049,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>244</v>
       </c>
@@ -2831,7 +3057,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>246</v>
       </c>
@@ -2839,13 +3065,13 @@
         <v>247</v>
       </c>
     </row>
-    <row r="143" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B143" s="9" t="s">
         <v>250</v>
       </c>
       <c r="C143" s="9"/>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>251</v>
       </c>
@@ -2853,7 +3079,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>274</v>
       </c>
@@ -2861,7 +3087,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>253</v>
       </c>
@@ -2869,7 +3095,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>255</v>
       </c>
@@ -2877,13 +3103,13 @@
         <v>256</v>
       </c>
     </row>
-    <row r="148" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B148" s="9" t="s">
         <v>270</v>
       </c>
       <c r="C148" s="9"/>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>271</v>
       </c>
@@ -2891,7 +3117,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>275</v>
       </c>
@@ -2899,25 +3125,25 @@
         <v>276</v>
       </c>
     </row>
-    <row r="151" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B151" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C151" s="10"/>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C151" s="11"/>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>278</v>
       </c>
       <c r="C152" s="1"/>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>279</v>
       </c>
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" s="3" t="s">
         <v>280</v>
       </c>
@@ -2925,25 +3151,25 @@
         <v>281</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>282</v>
       </c>
       <c r="C155" s="1"/>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C156" s="1"/>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="4" t="s">
         <v>283</v>
       </c>
       <c r="C157" s="4"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>285</v>
       </c>
@@ -2951,7 +3177,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>287</v>
       </c>
@@ -2959,19 +3185,19 @@
         <v>288</v>
       </c>
     </row>
-    <row r="160" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B160" s="9" t="s">
         <v>289</v>
       </c>
       <c r="C160" s="9"/>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>290</v>
       </c>
       <c r="C161" s="1"/>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>291</v>
       </c>
@@ -2979,7 +3205,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>293</v>
       </c>
@@ -2987,13 +3213,13 @@
         <v>294</v>
       </c>
     </row>
-    <row r="164" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B164" s="9" t="s">
         <v>299</v>
       </c>
       <c r="C164" s="9"/>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>295</v>
       </c>
@@ -3001,7 +3227,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>297</v>
       </c>
@@ -3009,13 +3235,13 @@
         <v>298</v>
       </c>
     </row>
-    <row r="167" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B167" s="9" t="s">
         <v>300</v>
       </c>
       <c r="C167" s="9"/>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" s="5" t="s">
         <v>311</v>
       </c>
@@ -3023,29 +3249,29 @@
         <v>312</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169" s="5"/>
       <c r="C169" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" s="5"/>
       <c r="C170" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171" s="5"/>
       <c r="C171" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173" s="6" t="s">
         <v>322</v>
       </c>
@@ -3053,41 +3279,41 @@
         <v>316</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174" s="5"/>
       <c r="C174" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" s="5"/>
       <c r="C175" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" s="5"/>
       <c r="C176" s="5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" s="5"/>
       <c r="C177" s="5" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" s="5"/>
       <c r="C178" s="5" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>301</v>
       </c>
@@ -3095,7 +3321,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>303</v>
       </c>
@@ -3103,7 +3329,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>305</v>
       </c>
@@ -3111,7 +3337,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
         <v>306</v>
       </c>
@@ -3119,7 +3345,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>309</v>
       </c>
@@ -3127,13 +3353,13 @@
         <v>310</v>
       </c>
     </row>
-    <row r="185" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B185" s="9" t="s">
         <v>323</v>
       </c>
       <c r="C185" s="9"/>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>326</v>
       </c>
@@ -3141,7 +3367,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>324</v>
       </c>
@@ -3149,13 +3375,13 @@
         <v>328</v>
       </c>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>325</v>
       </c>
       <c r="C188" s="1"/>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>329</v>
       </c>
@@ -3163,37 +3389,37 @@
         <v>330</v>
       </c>
     </row>
-    <row r="190" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B190" s="9" t="s">
         <v>331</v>
       </c>
       <c r="C190" s="9"/>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
         <v>332</v>
       </c>
       <c r="C191" s="1"/>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
         <v>334</v>
       </c>
       <c r="C192" s="1"/>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
         <v>333</v>
       </c>
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B194" s="9" t="s">
         <v>335</v>
       </c>
       <c r="C194" s="9"/>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
         <v>348</v>
       </c>
@@ -3201,13 +3427,13 @@
         <v>347</v>
       </c>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="C196" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
         <v>336</v>
       </c>
@@ -3215,7 +3441,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
         <v>338</v>
       </c>
@@ -3223,7 +3449,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
         <v>343</v>
       </c>
@@ -3231,7 +3457,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
         <v>341</v>
       </c>
@@ -3239,31 +3465,31 @@
         <v>342</v>
       </c>
     </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201" s="1" t="s">
         <v>344</v>
       </c>
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
         <v>345</v>
       </c>
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
         <v>346</v>
       </c>
       <c r="C203" s="1"/>
     </row>
-    <row r="204" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B204" s="9" t="s">
         <v>371</v>
       </c>
       <c r="C204" s="9"/>
     </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B205" s="7" t="s">
         <v>350</v>
       </c>
@@ -3271,7 +3497,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B206" s="8" t="s">
         <v>258</v>
       </c>
@@ -3279,7 +3505,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B207" s="8" t="s">
         <v>351</v>
       </c>
@@ -3287,7 +3513,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B208" s="8" t="s">
         <v>353</v>
       </c>
@@ -3295,13 +3521,13 @@
         <v>354</v>
       </c>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B209" s="8" t="s">
         <v>355</v>
       </c>
       <c r="C209" s="8"/>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210" s="8" t="s">
         <v>356</v>
       </c>
@@ -3309,7 +3535,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B211" s="8" t="s">
         <v>358</v>
       </c>
@@ -3317,7 +3543,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B212" s="8" t="s">
         <v>360</v>
       </c>
@@ -3325,7 +3551,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B213" s="8" t="s">
         <v>362</v>
       </c>
@@ -3333,17 +3559,17 @@
         <v>363</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
     </row>
-    <row r="215" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B215" s="9" t="s">
         <v>364</v>
       </c>
       <c r="C215" s="9"/>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B216" s="8" t="s">
         <v>365</v>
       </c>
@@ -3351,7 +3577,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B217" s="8" t="s">
         <v>367</v>
       </c>
@@ -3359,7 +3585,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B218" s="8" t="s">
         <v>356</v>
       </c>
@@ -3367,7 +3593,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B219" s="8" t="s">
         <v>368</v>
       </c>
@@ -3375,13 +3601,13 @@
         <v>369</v>
       </c>
     </row>
-    <row r="220" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B220" s="9" t="s">
         <v>372</v>
       </c>
       <c r="C220" s="9"/>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
         <v>373</v>
       </c>
@@ -3389,7 +3615,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
         <v>374</v>
       </c>
@@ -3397,7 +3623,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223" s="1" t="s">
         <v>375</v>
       </c>
@@ -3405,7 +3631,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
         <v>82</v>
       </c>
@@ -3413,7 +3639,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
         <v>376</v>
       </c>
@@ -3421,7 +3647,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B226" s="1" t="s">
         <v>378</v>
       </c>
@@ -3429,7 +3655,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
         <v>384</v>
       </c>
@@ -3437,13 +3663,13 @@
         <v>385</v>
       </c>
     </row>
-    <row r="228" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B228" s="9" t="s">
         <v>386</v>
       </c>
       <c r="C228" s="9"/>
     </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
         <v>387</v>
       </c>
@@ -3451,7 +3677,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
         <v>389</v>
       </c>
@@ -3459,7 +3685,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
         <v>392</v>
       </c>
@@ -3467,7 +3693,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
         <v>394</v>
       </c>
@@ -3475,7 +3701,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
         <v>395</v>
       </c>
@@ -3483,13 +3709,13 @@
         <v>396</v>
       </c>
     </row>
-    <row r="234" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B234" s="9" t="s">
         <v>397</v>
       </c>
       <c r="C234" s="9"/>
     </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
         <v>399</v>
       </c>
@@ -3497,21 +3723,212 @@
         <v>398</v>
       </c>
     </row>
+    <row r="236" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B236" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C236" s="9"/>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B237" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C237" s="14"/>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B238" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B239" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="C239" s="15"/>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B240" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C240" s="18"/>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B241" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B242" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B243" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B244" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B245" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="C245" s="18"/>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B246" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B247" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B248" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B249" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B250" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="C250" s="18"/>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B251" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B252" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B253" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="C253" s="18"/>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B254" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B255" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B256" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="C256" s="18"/>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B257" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B258" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B259" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B260" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B261" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B262" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B263" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B220:C220"/>
+  <mergeCells count="37">
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="B240:C240"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B148:C148"/>
     <mergeCell ref="B151:C151"/>
@@ -3528,8 +3945,25 @@
     <mergeCell ref="B167:C167"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B220:C220"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B239" r:id="rId1" xr:uid="{4CE961CE-8C01-4CBE-B89F-BD5A5EAABC94}"/>
+    <hyperlink ref="F9" r:id="rId2" location="vi" xr:uid="{B84E70C5-ECAA-4184-AD8A-506980EA201A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/program_web/node_frontend.xlsx
+++ b/program_web/node_frontend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\program_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D90411-4C0A-4ACC-AFE1-85167FFDCEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CB0B35-4A20-41E2-82B9-F55B0061D98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{54DDD98C-9698-45B3-BEB7-1BCDAA35702A}"/>
   </bookViews>
@@ -1366,10 +1366,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1688,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF9AC94-564D-476B-A6F2-7E513429403D}">
   <dimension ref="B1:G235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B205" sqref="B205"/>
+    <sheetView tabSelected="1" topLeftCell="A222" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F229" sqref="F229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2592,10 +2592,10 @@
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C111" s="11"/>
+      <c r="C111" s="10"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B112" s="1" t="s">
@@ -2606,10 +2606,10 @@
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C113" s="11"/>
+      <c r="C113" s="10"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B114" s="1" t="s">
@@ -2903,7 +2903,7 @@
       <c r="B151" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C151" s="10"/>
+      <c r="C151" s="11"/>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B152" s="1" t="s">
@@ -3499,19 +3499,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B220:C220"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B148:C148"/>
     <mergeCell ref="B151:C151"/>
@@ -3528,6 +3515,19 @@
     <mergeCell ref="B167:C167"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B220:C220"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/program_web/node_frontend.xlsx
+++ b/program_web/node_frontend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\program_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CB0B35-4A20-41E2-82B9-F55B0061D98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8EC08B-A2AA-448C-AA75-50C7D9F0EEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{54DDD98C-9698-45B3-BEB7-1BCDAA35702A}"/>
   </bookViews>
@@ -1366,10 +1366,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1688,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF9AC94-564D-476B-A6F2-7E513429403D}">
   <dimension ref="B1:G235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F229" sqref="F229"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2592,10 +2592,10 @@
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C111" s="10"/>
+      <c r="C111" s="11"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B112" s="1" t="s">
@@ -2606,10 +2606,10 @@
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C113" s="10"/>
+      <c r="C113" s="11"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B114" s="1" t="s">
@@ -2903,7 +2903,7 @@
       <c r="B151" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C151" s="11"/>
+      <c r="C151" s="10"/>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B152" s="1" t="s">
@@ -3499,6 +3499,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B220:C220"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B148:C148"/>
     <mergeCell ref="B151:C151"/>
@@ -3515,19 +3528,6 @@
     <mergeCell ref="B167:C167"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B220:C220"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/program_web/node_frontend.xlsx
+++ b/program_web/node_frontend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\program_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5830A678-DB59-48B2-BCBF-27900DF004F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7068EB1-6DFD-4FE3-ABA0-B6463484A98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{54DDD98C-9698-45B3-BEB7-1BCDAA35702A}"/>
   </bookViews>
@@ -1546,16 +1546,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1564,22 +1576,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF9AC94-564D-476B-A6F2-7E513429403D}">
   <dimension ref="B1:G263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,16 +1910,16 @@
     <col min="3" max="3" width="82.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
     <col min="5" max="5" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9"/>
+      <c r="C1" s="14"/>
       <c r="E1" s="2" t="s">
         <v>258</v>
       </c>
@@ -2007,10 +2007,10 @@
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="11" t="s">
         <v>426</v>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="9" t="s">
         <v>445</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -2080,10 +2080,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -2166,10 +2166,10 @@
       </c>
     </row>
     <row r="26" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
@@ -2268,10 +2268,10 @@
       </c>
     </row>
     <row r="39" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="9"/>
+      <c r="C39" s="14"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
@@ -2322,10 +2322,10 @@
       </c>
     </row>
     <row r="46" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="9"/>
+      <c r="C46" s="14"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
@@ -2360,10 +2360,10 @@
       </c>
     </row>
     <row r="51" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="9"/>
+      <c r="C51" s="14"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
@@ -2430,10 +2430,10 @@
       </c>
     </row>
     <row r="60" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C60" s="9"/>
+      <c r="C60" s="14"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
@@ -2452,16 +2452,16 @@
       </c>
     </row>
     <row r="63" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C63" s="9"/>
+      <c r="C63" s="14"/>
     </row>
     <row r="64" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C64" s="9"/>
+      <c r="C64" s="14"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
@@ -2520,10 +2520,10 @@
       </c>
     </row>
     <row r="72" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="9"/>
+      <c r="C72" s="14"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
@@ -2548,10 +2548,10 @@
       </c>
     </row>
     <row r="76" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C76" s="9"/>
+      <c r="C76" s="14"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
@@ -2586,10 +2586,10 @@
       </c>
     </row>
     <row r="81" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C81" s="9"/>
+      <c r="C81" s="14"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
@@ -2818,10 +2818,10 @@
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="C111" s="10"/>
+      <c r="C111" s="20"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
@@ -2832,10 +2832,10 @@
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="C113" s="10"/>
+      <c r="C113" s="20"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
@@ -2892,10 +2892,10 @@
       </c>
     </row>
     <row r="121" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C121" s="9"/>
+      <c r="C121" s="14"/>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
@@ -3066,10 +3066,10 @@
       </c>
     </row>
     <row r="143" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="C143" s="9"/>
+      <c r="C143" s="14"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
@@ -3104,10 +3104,10 @@
       </c>
     </row>
     <row r="148" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C148" s="9"/>
+      <c r="C148" s="14"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
@@ -3126,10 +3126,10 @@
       </c>
     </row>
     <row r="151" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="C151" s="11"/>
+      <c r="C151" s="19"/>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
@@ -3186,10 +3186,10 @@
       </c>
     </row>
     <row r="160" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B160" s="9" t="s">
+      <c r="B160" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="C160" s="9"/>
+      <c r="C160" s="14"/>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
@@ -3214,10 +3214,10 @@
       </c>
     </row>
     <row r="164" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="C164" s="9"/>
+      <c r="C164" s="14"/>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
@@ -3236,10 +3236,10 @@
       </c>
     </row>
     <row r="167" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C167" s="9"/>
+      <c r="C167" s="14"/>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" s="5" t="s">
@@ -3354,10 +3354,10 @@
       </c>
     </row>
     <row r="185" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B185" s="9" t="s">
+      <c r="B185" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="C185" s="9"/>
+      <c r="C185" s="14"/>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
@@ -3390,10 +3390,10 @@
       </c>
     </row>
     <row r="190" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B190" s="9" t="s">
+      <c r="B190" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="C190" s="9"/>
+      <c r="C190" s="14"/>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
@@ -3414,10 +3414,10 @@
       <c r="C193" s="1"/>
     </row>
     <row r="194" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B194" s="9" t="s">
+      <c r="B194" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="C194" s="9"/>
+      <c r="C194" s="14"/>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
@@ -3484,10 +3484,10 @@
       <c r="C203" s="1"/>
     </row>
     <row r="204" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B204" s="9" t="s">
+      <c r="B204" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="C204" s="9"/>
+      <c r="C204" s="14"/>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B205" s="7" t="s">
@@ -3564,10 +3564,10 @@
       <c r="C214" s="8"/>
     </row>
     <row r="215" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B215" s="9" t="s">
+      <c r="B215" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="C215" s="9"/>
+      <c r="C215" s="14"/>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B216" s="8" t="s">
@@ -3602,10 +3602,10 @@
       </c>
     </row>
     <row r="220" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B220" s="9" t="s">
+      <c r="B220" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="C220" s="9"/>
+      <c r="C220" s="14"/>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
@@ -3664,10 +3664,10 @@
       </c>
     </row>
     <row r="228" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B228" s="9" t="s">
+      <c r="B228" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="C228" s="9"/>
+      <c r="C228" s="14"/>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
@@ -3710,10 +3710,10 @@
       </c>
     </row>
     <row r="234" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B234" s="9" t="s">
+      <c r="B234" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="C234" s="9"/>
+      <c r="C234" s="14"/>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
@@ -3724,19 +3724,19 @@
       </c>
     </row>
     <row r="236" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B236" s="9" t="s">
+      <c r="B236" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="C236" s="9"/>
+      <c r="C236" s="14"/>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B237" s="13" t="s">
+      <c r="B237" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="C237" s="14"/>
+      <c r="C237" s="18"/>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B238" s="16" t="s">
+      <c r="B238" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C238" s="1" t="s">
@@ -3744,16 +3744,16 @@
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B239" s="19" t="s">
+      <c r="B239" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="C239" s="15"/>
+      <c r="C239" s="16"/>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B240" s="17" t="s">
+      <c r="B240" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C240" s="18"/>
+      <c r="C240" s="13"/>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
@@ -3788,10 +3788,10 @@
       </c>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B245" s="17" t="s">
+      <c r="B245" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="C245" s="18"/>
+      <c r="C245" s="13"/>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
@@ -3826,10 +3826,10 @@
       </c>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B250" s="17" t="s">
+      <c r="B250" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="C250" s="18"/>
+      <c r="C250" s="13"/>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B251" s="2" t="s">
@@ -3842,10 +3842,10 @@
       </c>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B253" s="17" t="s">
+      <c r="B253" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="C253" s="18"/>
+      <c r="C253" s="13"/>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B254" s="2" t="s">
@@ -3864,10 +3864,10 @@
       </c>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B256" s="17" t="s">
+      <c r="B256" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="C256" s="18"/>
+      <c r="C256" s="13"/>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B257" s="2" t="s">
@@ -3921,14 +3921,19 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B245:C245"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="B256:C256"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B220:C220"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B148:C148"/>
     <mergeCell ref="B151:C151"/>
@@ -3945,19 +3950,14 @@
     <mergeCell ref="B167:C167"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="B240:C240"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B239" r:id="rId1" xr:uid="{4CE961CE-8C01-4CBE-B89F-BD5A5EAABC94}"/>

--- a/program_web/node_frontend.xlsx
+++ b/program_web/node_frontend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\program_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7068EB1-6DFD-4FE3-ABA0-B6463484A98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9B189F-4C9C-4E0D-9ABE-664E526079D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{54DDD98C-9698-45B3-BEB7-1BCDAA35702A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="450">
   <si>
     <t>javaScrip string methods</t>
   </si>
@@ -1377,6 +1377,15 @@
   </si>
   <si>
     <t>game flex</t>
+  </si>
+  <si>
+    <t>Truy cập bằng điện thoại</t>
+  </si>
+  <si>
+    <t>ipconfig</t>
+  </si>
+  <si>
+    <t>lấy địa chỉ IP</t>
   </si>
 </sst>
 </file>
@@ -1555,13 +1564,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1574,12 +1589,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1897,10 +1906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF9AC94-564D-476B-A6F2-7E513429403D}">
-  <dimension ref="B1:G263"/>
+  <dimension ref="B1:G265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122"/>
+    <sheetView tabSelected="1" topLeftCell="A239" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F250" sqref="F250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,10 +1925,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="12"/>
       <c r="E1" s="2" t="s">
         <v>258</v>
       </c>
@@ -2080,10 +2089,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="12"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -2166,10 +2175,10 @@
       </c>
     </row>
     <row r="26" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="14"/>
+      <c r="C26" s="12"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
@@ -2268,10 +2277,10 @@
       </c>
     </row>
     <row r="39" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="14"/>
+      <c r="C39" s="12"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
@@ -2322,10 +2331,10 @@
       </c>
     </row>
     <row r="46" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="14"/>
+      <c r="C46" s="12"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
@@ -2360,10 +2369,10 @@
       </c>
     </row>
     <row r="51" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="14"/>
+      <c r="C51" s="12"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
@@ -2430,10 +2439,10 @@
       </c>
     </row>
     <row r="60" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C60" s="14"/>
+      <c r="C60" s="12"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
@@ -2452,16 +2461,16 @@
       </c>
     </row>
     <row r="63" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C63" s="14"/>
+      <c r="C63" s="12"/>
     </row>
     <row r="64" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C64" s="14"/>
+      <c r="C64" s="12"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
@@ -2520,10 +2529,10 @@
       </c>
     </row>
     <row r="72" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="14"/>
+      <c r="C72" s="12"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
@@ -2548,10 +2557,10 @@
       </c>
     </row>
     <row r="76" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C76" s="14"/>
+      <c r="C76" s="12"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
@@ -2586,10 +2595,10 @@
       </c>
     </row>
     <row r="81" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C81" s="14"/>
+      <c r="C81" s="12"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
@@ -2818,10 +2827,10 @@
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" s="20" t="s">
+      <c r="B111" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C111" s="20"/>
+      <c r="C111" s="13"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
@@ -2832,10 +2841,10 @@
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="20" t="s">
+      <c r="B113" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C113" s="20"/>
+      <c r="C113" s="13"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
@@ -2892,10 +2901,10 @@
       </c>
     </row>
     <row r="121" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C121" s="14"/>
+      <c r="C121" s="12"/>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
@@ -3066,10 +3075,10 @@
       </c>
     </row>
     <row r="143" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="C143" s="14"/>
+      <c r="C143" s="12"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
@@ -3104,10 +3113,10 @@
       </c>
     </row>
     <row r="148" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B148" s="14" t="s">
+      <c r="B148" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="C148" s="14"/>
+      <c r="C148" s="12"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
@@ -3126,10 +3135,10 @@
       </c>
     </row>
     <row r="151" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B151" s="14" t="s">
+      <c r="B151" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="C151" s="19"/>
+      <c r="C151" s="14"/>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
@@ -3186,10 +3195,10 @@
       </c>
     </row>
     <row r="160" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B160" s="14" t="s">
+      <c r="B160" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="C160" s="14"/>
+      <c r="C160" s="12"/>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
@@ -3214,10 +3223,10 @@
       </c>
     </row>
     <row r="164" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B164" s="14" t="s">
+      <c r="B164" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="C164" s="14"/>
+      <c r="C164" s="12"/>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
@@ -3236,10 +3245,10 @@
       </c>
     </row>
     <row r="167" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B167" s="14" t="s">
+      <c r="B167" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="C167" s="14"/>
+      <c r="C167" s="12"/>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" s="5" t="s">
@@ -3354,10 +3363,10 @@
       </c>
     </row>
     <row r="185" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B185" s="14" t="s">
+      <c r="B185" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="C185" s="14"/>
+      <c r="C185" s="12"/>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
@@ -3390,10 +3399,10 @@
       </c>
     </row>
     <row r="190" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B190" s="14" t="s">
+      <c r="B190" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="C190" s="14"/>
+      <c r="C190" s="12"/>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
@@ -3414,10 +3423,10 @@
       <c r="C193" s="1"/>
     </row>
     <row r="194" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B194" s="14" t="s">
+      <c r="B194" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="C194" s="14"/>
+      <c r="C194" s="12"/>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
@@ -3484,10 +3493,10 @@
       <c r="C203" s="1"/>
     </row>
     <row r="204" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B204" s="14" t="s">
+      <c r="B204" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="C204" s="14"/>
+      <c r="C204" s="12"/>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B205" s="7" t="s">
@@ -3564,10 +3573,10 @@
       <c r="C214" s="8"/>
     </row>
     <row r="215" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B215" s="14" t="s">
+      <c r="B215" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="C215" s="14"/>
+      <c r="C215" s="12"/>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B216" s="8" t="s">
@@ -3602,10 +3611,10 @@
       </c>
     </row>
     <row r="220" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B220" s="14" t="s">
+      <c r="B220" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="C220" s="14"/>
+      <c r="C220" s="12"/>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
@@ -3664,10 +3673,10 @@
       </c>
     </row>
     <row r="228" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B228" s="14" t="s">
+      <c r="B228" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="C228" s="14"/>
+      <c r="C228" s="12"/>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
@@ -3710,10 +3719,10 @@
       </c>
     </row>
     <row r="234" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B234" s="14" t="s">
+      <c r="B234" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="C234" s="14"/>
+      <c r="C234" s="12"/>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
@@ -3724,16 +3733,16 @@
       </c>
     </row>
     <row r="236" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B236" s="14" t="s">
+      <c r="B236" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="C236" s="14"/>
+      <c r="C236" s="12"/>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B237" s="17" t="s">
+      <c r="B237" s="19" t="s">
         <v>401</v>
       </c>
-      <c r="C237" s="18"/>
+      <c r="C237" s="20"/>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B238" s="10" t="s">
@@ -3744,16 +3753,16 @@
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B239" s="15" t="s">
+      <c r="B239" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="C239" s="16"/>
+      <c r="C239" s="18"/>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B240" s="12" t="s">
+      <c r="B240" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C240" s="13"/>
+      <c r="C240" s="16"/>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
@@ -3788,10 +3797,10 @@
       </c>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B245" s="12" t="s">
+      <c r="B245" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="C245" s="13"/>
+      <c r="C245" s="16"/>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
@@ -3826,114 +3835,128 @@
       </c>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B250" s="12" t="s">
+      <c r="B250" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="C250" s="13"/>
+      <c r="C250" s="16"/>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B251" s="2" t="s">
+      <c r="B251" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="C251" s="3"/>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B252" s="2" t="s">
+      <c r="B252" s="3" t="s">
         <v>423</v>
       </c>
+      <c r="C252" s="3"/>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B253" s="12" t="s">
+      <c r="B253" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="C253" s="13"/>
+      <c r="C253" s="16"/>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B254" s="2" t="s">
+      <c r="B254" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="C254" s="3" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B255" s="2" t="s">
+      <c r="B255" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C255" s="3" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B256" s="12" t="s">
+      <c r="B256" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="C256" s="13"/>
+      <c r="C256" s="16"/>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B257" s="2" t="s">
+      <c r="B257" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="C257" s="3" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B258" s="2" t="s">
+      <c r="B258" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C258" s="3" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B259" s="2" t="s">
+      <c r="B259" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C259" s="3" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B260" s="2" t="s">
+      <c r="B260" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="C260" s="3" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B261" s="2" t="s">
+      <c r="B261" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="C261" s="3" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B262" s="2" t="s">
+      <c r="B262" s="3" t="s">
         <v>442</v>
       </c>
+      <c r="C262" s="3"/>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B263" s="2" t="s">
+      <c r="B263" s="3" t="s">
         <v>443</v>
       </c>
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B264" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="C264" s="16"/>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B265" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>449</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B220:C220"/>
+  <mergeCells count="38">
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="B240:C240"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B148:C148"/>
     <mergeCell ref="B151:C151"/>
@@ -3950,14 +3973,19 @@
     <mergeCell ref="B167:C167"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B245:C245"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="B256:C256"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B220:C220"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B239" r:id="rId1" xr:uid="{4CE961CE-8C01-4CBE-B89F-BD5A5EAABC94}"/>
